--- a/output/google_maps_data_Samsat_DIY.xlsx
+++ b/output/google_maps_data_Samsat_DIY.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>0811-2579-090</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4</v>
+      </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>-7.78813</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.78813</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.359169</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Samsat+Kota+Yogyakarta/@-7.7881301,110.3411447,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a58230d2b0443:0xd01eb1495f365ba4!8m2!3d-7.7881301!4d110.3591691!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOa2NGQnBjWHAzUlJBQuABAPoBBQjACBA2!16s%2Fg%2F1hm57qvbl?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Samsat+Kota+Yogyakarta/@-7.7881301,110.3411447,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a58230d2b0443:0xd01eb1495f365ba4!8m2!3d-7.7881301!4d110.3591691!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOa2NGQnBjWHAzUlJBQuABAPoBBQjACBA2!16s%2Fg%2F1hm57qvbl?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>2 hari lalu</t>
         </is>
@@ -548,25 +542,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.810288</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.810288</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.375821</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Kelurahan+Wirogunan/@-7.8102878,110.3577961,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a579c32ef4e79:0xadef50103906043d!8m2!3d-7.8102878!4d110.3758205!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2JEZFlNMWhSRUFF4AEA-gEECDEQLg!16s%2Fg%2F11ggjzmsz9?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Kelurahan+Wirogunan/@-7.8102878,110.3577961,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a579c32ef4e79:0xadef50103906043d!8m2!3d-7.8102878!4d110.3758205!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VSQ2JEZFlNMWhSRUFF4AEA-gEECDEQLg!16s%2Fg%2F11ggjzmsz9?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -589,25 +582,24 @@
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.4</v>
+        <v>-7.83159</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.83159</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.390199</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Giwangan/@-7.8315899,110.3721748,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a57034db83fe1:0x2563e19eb111f86!8m2!3d-7.8315899!4d110.3901992!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE16aGlaRVpCRUFF4AEA-gEECC8QFw!16s%2Fg%2F11bbyd64mv?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Giwangan/@-7.8315899,110.3721748,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a57034db83fe1:0x2563e19eb111f86!8m2!3d-7.8315899!4d110.3901992!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE16aGlaRVpCRUFF4AEA-gEECC8QFw!16s%2Fg%2F11bbyd64mv?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -630,25 +622,24 @@
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.5</v>
+        <v>-7.783173</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.783173</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.426797</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Kab+Sleman/@-7.7831735,110.4087723,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5a72919f1c03:0x9e45d5ac0e4f334d!8m2!3d-7.7831735!4d110.4267967!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE4zRjZURXRuRUFF4AEA-gEECAAQPw!16s%2Fg%2F11cjj5bghn?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Kab+Sleman/@-7.7831735,110.4087723,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5a72919f1c03:0x9e45d5ac0e4f334d!8m2!3d-7.7831735!4d110.4267967!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE4zRjZURXRuRUFF4AEA-gEECAAQPw!16s%2Fg%2F11cjj5bghn?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -675,25 +666,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>-7.796721</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.796721</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.359831</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.3418061,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0Y2paVU9WWm5FQUXgAQD6AQUIoAUQFw!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Satpas+SIM+Polres+Kota+Yogyakarta/@-7.7967213,110.3418061,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a578a05b54acb:0x8d776091424f6288!8m2!3d-7.7967213!4d110.3598305!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJ0Y2paVU9WWm5FQUXgAQD6AQUIoAUQFw!16s%2Fg%2F11g6h_v4tq?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -720,25 +710,24 @@
           <t>(0274) 373403</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.802012</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.802012</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.367184</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kantor+Pelayanan+Pajak+Pratama+Yogyakarta/@-7.7967213,110.3418061,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5785fb77653d:0x269ac3f5113540f7!8m2!3d-7.8020116!4d110.3671836!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ9jaXR5X3RheF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVhRFkyTTBObkVBReABAPoBBAgAEDI!16s%2Fg%2F1tdhw76y?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kantor+Pelayanan+Pajak+Pratama+Yogyakarta/@-7.7967213,110.3418061,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5785fb77653d:0x269ac3f5113540f7!8m2!3d-7.8020116!4d110.3671836!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ9jaXR5X3RheF9vZmZpY2WaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVhRFkyTTBObkVBReABAPoBBAgAEDI!16s%2Fg%2F1tdhw76y?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -761,25 +750,24 @@
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.4</v>
+        <v>-7.699845</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.699845</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.346613</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Sleman/@-7.6998454,110.328589,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5f438daf47c5:0x490baabce213a712!8m2!3d-7.6998454!4d110.3466134!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMVoyWllRelZuUlJBQuABAPoBBQj1GRAn!16s%2Fg%2F11b8_pj912?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Sleman/@-7.6998454,110.328589,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5f438daf47c5:0x490baabce213a712!8m2!3d-7.6998454!4d110.3466134!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VNMVoyWllRelZuUlJBQuABAPoBBQj1GRAn!16s%2Fg%2F11b8_pj912?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>12 jam lalu</t>
         </is>
@@ -798,25 +786,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.841616</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.841616</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.362575</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Pembantu+Sewon/@-7.8416158,110.3445504,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a564c3c5c6421:0x9f412fcd139efdda!8m2!3d-7.8416158!4d110.3625748!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdVgxbExZaTFuUlJBQuABAPoBBAgAEDY!16s%2Fg%2F1pzr2k3x6?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Pembantu+Sewon/@-7.8416158,110.3445504,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a564c3c5c6421:0x9f412fcd139efdda!8m2!3d-7.8416158!4d110.3625748!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOdVgxbExZaTFuUlJBQuABAPoBBAgAEDY!16s%2Fg%2F1pzr2k3x6?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>13 jam lalu</t>
         </is>
@@ -839,25 +826,24 @@
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.782407</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.782407</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.37886</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Galeria+Mall/@-7.7824073,110.3608354,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a59ccd63bad3f:0xab226217d97cdb69!8m2!3d-7.7824073!4d110.3788598!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTWRXUXRkbmxuUlJBQuABAPoBBAgAEEc!16s%2Fg%2F11c2pw5j4p?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Galeria+Mall/@-7.7824073,110.3608354,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a59ccd63bad3f:0xab226217d97cdb69!8m2!3d-7.7824073!4d110.3788598!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOTWRXUXRkbmxuUlJBQuABAPoBBAgAEEc!16s%2Fg%2F11c2pw5j4p?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -884,25 +870,24 @@
           <t>(0274) 367483</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F11" t="n">
-        <v>3.9</v>
+        <v>-7.891765</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.891765</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.329852</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.3118275,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1GbEhURVJSRUFF4AEA-gEECAAQRA!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Samsat+Bantul/@-7.8917649,110.3118275,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7aff581f18d9df:0xee62be440034eabb!8m2!3d-7.8917649!4d110.3298519!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOeE1GbEhURVJSRUFF4AEA-gEECAAQRA!16s%2Fg%2F1pzwbg01n?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>22 jam lalu</t>
         </is>
@@ -925,25 +910,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4</v>
+        <v>-7.767271</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.767271</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.291872</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Godean/@-7.7672711,110.2738474,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7af7af097785a7:0x60670970710855e!8m2!3d-7.7672711!4d110.2918718!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2FIWlhVazUzRUFF4AEA-gEECAAQKA!16s%2Fg%2F11ggn99cp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Godean/@-7.7672711,110.2738474,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7af7af097785a7:0x60670970710855e!8m2!3d-7.7672711!4d110.2918718!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOb2FIWlhVazUzRUFF4AEA-gEECAAQKA!16s%2Fg%2F11ggn99cp5?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -970,25 +954,24 @@
           <t>0896-7503-0009</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.801405</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.801405</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.375896</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta/@-7.8014052,110.3578715,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a574244da90a5:0x6989a5b50a64f233!8m2!3d-7.8014052!4d110.3758959!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0xTkUxbFpsbG5FQUXgAQD6AQUI1wMQJg!16s%2Fg%2F11t__gfcj0?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta/@-7.8014052,110.3578715,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a574244da90a5:0x6989a5b50a64f233!8m2!3d-7.8014052!4d110.3758959!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU0xTkUxbFpsbG5FQUXgAQD6AQUI1wMQJg!16s%2Fg%2F11t__gfcj0?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1011,25 +994,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.7</v>
+        <v>-7.698808</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.698808</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.347111</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Night+Drive+Thru/@-7.6988076,110.3290867,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5f9012c704fd:0x51aaa0da6cdf418f!8m2!3d-7.6988076!4d110.3471111!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNdGVtSjJRa1ZCRUFF4AEA-gEECB8QRw!16s%2Fg%2F11h80dw6y3?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Night+Drive+Thru/@-7.6988076,110.3290867,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5f9012c704fd:0x51aaa0da6cdf418f!8m2!3d-7.6988076!4d110.3471111!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VNdGVtSjJRa1ZCRUFF4AEA-gEECB8QRw!16s%2Fg%2F11h80dw6y3?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1056,25 +1038,24 @@
           <t>0800 1503999</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.9</v>
+        <v>-7.699313</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.699313</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.346818</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/KPPD+DIY+di+Kab.+Sleman/@-7.6988076,110.3290867,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5fe11fc3ee77:0x77e560fd9b3f7d93!8m2!3d-7.6993134!4d110.3468179!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ50YXhfZGVwYXJ0bWVudOABAA!16s%2Fg%2F11vb14v8k5?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/KPPD+DIY+di+Kab.+Sleman/@-7.6988076,110.3290867,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5fe11fc3ee77:0x77e560fd9b3f7d93!8m2!3d-7.6993134!4d110.3468179!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ50YXhfZGVwYXJ0bWVudOABAA!16s%2Fg%2F11vb14v8k5?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1101,25 +1082,24 @@
           <t>(0274) 2921211</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>-7.811148</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.811148</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.363293</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta+(Malam+Minggu)/@-7.8111484,110.3452686,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5825f39182c1:0x2e76d81744f1d8bd!8m2!3d-7.8111484!4d110.363293!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5xYmpoNVZXUjNFQUXgAQD6AQUItAEQEw!16s%2Fg%2F11f126qsrg?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SIM+Keliling+Polresta+Yogyakarta+(Malam+Minggu)/@-7.8111484,110.3452686,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5825f39182c1:0x2e76d81744f1d8bd!8m2!3d-7.8111484!4d110.363293!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARZkcml2ZXJzX2xpY2Vuc2Vfb2ZmaWNlmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5xYmpoNVZXUjNFQUXgAQD6AQUItAEQEw!16s%2Fg%2F11f126qsrg?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1146,25 +1126,24 @@
           <t>(0274) 543767</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.7</v>
+        <v>-7.795003</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.795003</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.367796</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Biro+Tata+Pemerintahan+Setda+DIY/@-7.7950029,110.3497713,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5827e596451f:0x608233aeb87bf02d!8m2!3d-7.7950029!4d110.3677957!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARpyZWdpb25hbF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSExVcElhbkJuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1pzxn6x7h?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Biro+Tata+Pemerintahan+Setda+DIY/@-7.7950029,110.3497713,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5827e596451f:0x608233aeb87bf02d!8m2!3d-7.7950029!4d110.3677957!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSARpyZWdpb25hbF9nb3Zlcm5tZW50X29mZmljZZoBJENoZERTVWhOTUc5blMwVkpRMEZuU1VOSExVcElhbkJuUlJBQuABAPoBBAgAEBo!16s%2Fg%2F1pzxn6x7h?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1187,25 +1166,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.6</v>
+        <v>-7.65915</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.65915</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.421957</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SAMSAT+Desa+Pakembinangun/@-7.6591497,110.4039325,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5e7767965c1f:0x718a04d5b44b652d!8m2!3d-7.6591497!4d110.4219569!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTE1tWXpWRmgzRUFF4AEA-gEECAAQLw!16s%2Fg%2F11c75xb9h2?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SAMSAT+Desa+Pakembinangun/@-7.6591497,110.4039325,15z/data=!4m10!1m2!2m1!1sSamsat+DIY!3m6!1s0x2e7a5e7767965c1f:0x718a04d5b44b652d!8m2!3d-7.6591497!4d110.4219569!15sCgpTYW1zYXQgRElZWgwiCnNhbXNhdCBkaXmSAQ5saWNlbnNlX2J1cmVhdZoBI0NoWkRTVWhOTUc5blMwVkpRMEZuU1VOTE1tWXpWRmgzRUFF4AEA-gEECAAQLw!16s%2Fg%2F11c75xb9h2?entry=ttu&amp;g_ep=EgoyMDI1MDIwNC4wIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
